--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H2">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.381632333333333</v>
+        <v>0.2992453333333333</v>
       </c>
       <c r="N2">
-        <v>4.144897</v>
+        <v>0.897736</v>
       </c>
       <c r="O2">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="P2">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="Q2">
-        <v>8.199441232473445</v>
+        <v>0.8253886527413332</v>
       </c>
       <c r="R2">
-        <v>73.79497109226101</v>
+        <v>7.428497874672</v>
       </c>
       <c r="S2">
-        <v>0.1349849692163838</v>
+        <v>0.0274873399037391</v>
       </c>
       <c r="T2">
-        <v>0.1349849692163838</v>
+        <v>0.0274873399037391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H3">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.136233333333333</v>
       </c>
       <c r="N3">
-        <v>3.408700000000001</v>
+        <v>3.4087</v>
       </c>
       <c r="O3">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="P3">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="Q3">
-        <v>6.743095263677779</v>
+        <v>3.133997411933333</v>
       </c>
       <c r="R3">
-        <v>60.68785737310002</v>
+        <v>28.20597670739999</v>
       </c>
       <c r="S3">
-        <v>0.111009577455818</v>
+        <v>0.1043693196328046</v>
       </c>
       <c r="T3">
-        <v>0.111009577455818</v>
+        <v>0.1043693196328046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H4">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I4">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J4">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6365753333333333</v>
+        <v>0.656196</v>
       </c>
       <c r="N4">
-        <v>1.909726</v>
+        <v>1.968588</v>
       </c>
       <c r="O4">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="P4">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="Q4">
-        <v>3.777822731693111</v>
+        <v>1.809942117864</v>
       </c>
       <c r="R4">
-        <v>34.000404585238</v>
+        <v>16.289479060776</v>
       </c>
       <c r="S4">
-        <v>0.06219317520356425</v>
+        <v>0.06027523401804311</v>
       </c>
       <c r="T4">
-        <v>0.06219317520356425</v>
+        <v>0.06027523401804311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H5">
         <v>23.161992</v>
       </c>
       <c r="I5">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J5">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.381632333333333</v>
+        <v>0.2992453333333333</v>
       </c>
       <c r="N5">
-        <v>4.144897</v>
+        <v>0.897736</v>
       </c>
       <c r="O5">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="P5">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="Q5">
-        <v>10.66711901720267</v>
+        <v>2.310372672234667</v>
       </c>
       <c r="R5">
-        <v>96.004071154824</v>
+        <v>20.793354050112</v>
       </c>
       <c r="S5">
-        <v>0.1756096167214365</v>
+        <v>0.07694072208904754</v>
       </c>
       <c r="T5">
-        <v>0.1756096167214365</v>
+        <v>0.07694072208904754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H6">
         <v>23.161992</v>
       </c>
       <c r="I6">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J6">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.136233333333333</v>
       </c>
       <c r="N6">
-        <v>3.408700000000001</v>
+        <v>3.4087</v>
       </c>
       <c r="O6">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="P6">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="Q6">
         <v>8.772475792266667</v>
       </c>
       <c r="R6">
-        <v>78.95228213040001</v>
+        <v>78.95228213039999</v>
       </c>
       <c r="S6">
-        <v>0.1444186672234221</v>
+        <v>0.2921436139187204</v>
       </c>
       <c r="T6">
-        <v>0.1444186672234221</v>
+        <v>0.2921436139187204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H7">
         <v>23.161992</v>
       </c>
       <c r="I7">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J7">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6365753333333333</v>
+        <v>0.656196</v>
       </c>
       <c r="N7">
-        <v>1.909726</v>
+        <v>1.968588</v>
       </c>
       <c r="O7">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="P7">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="Q7">
-        <v>4.914784259354666</v>
+        <v>5.066268834144</v>
       </c>
       <c r="R7">
-        <v>44.23305833419199</v>
+        <v>45.59641950729601</v>
       </c>
       <c r="S7">
-        <v>0.0809106356329149</v>
+        <v>0.168718400750147</v>
       </c>
       <c r="T7">
-        <v>0.08091063563291488</v>
+        <v>0.168718400750147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H8">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I8">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J8">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.381632333333333</v>
+        <v>0.2992453333333333</v>
       </c>
       <c r="N8">
-        <v>4.144897</v>
+        <v>0.897736</v>
       </c>
       <c r="O8">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="P8">
-        <v>0.4379959344090865</v>
+        <v>0.1430649508272797</v>
       </c>
       <c r="Q8">
-        <v>7.738786590775667</v>
+        <v>1.160186825385778</v>
       </c>
       <c r="R8">
-        <v>69.649079316981</v>
+        <v>10.441681428472</v>
       </c>
       <c r="S8">
-        <v>0.1274013484712662</v>
+        <v>0.03863688883449305</v>
       </c>
       <c r="T8">
-        <v>0.1274013484712662</v>
+        <v>0.03863688883449305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H9">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I9">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J9">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.136233333333333</v>
       </c>
       <c r="N9">
-        <v>3.408700000000001</v>
+        <v>3.4087</v>
       </c>
       <c r="O9">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="P9">
-        <v>0.3602011682365698</v>
+        <v>0.5432170458630915</v>
       </c>
       <c r="Q9">
-        <v>6.364259920566667</v>
+        <v>4.405224733877777</v>
       </c>
       <c r="R9">
-        <v>57.27833928510001</v>
+        <v>39.64702260489999</v>
       </c>
       <c r="S9">
-        <v>0.1047729235573297</v>
+        <v>0.1467041123115665</v>
       </c>
       <c r="T9">
-        <v>0.1047729235573296</v>
+        <v>0.1467041123115665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H10">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I10">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J10">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6365753333333333</v>
+        <v>0.656196</v>
       </c>
       <c r="N10">
-        <v>1.909726</v>
+        <v>1.968588</v>
       </c>
       <c r="O10">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="P10">
-        <v>0.2018028973543437</v>
+        <v>0.3137180033096288</v>
       </c>
       <c r="Q10">
-        <v>3.565580027888666</v>
+        <v>2.544099670964</v>
       </c>
       <c r="R10">
-        <v>32.09022025099799</v>
+        <v>22.896897038676</v>
       </c>
       <c r="S10">
-        <v>0.05869908651786455</v>
+        <v>0.08472436854143869</v>
       </c>
       <c r="T10">
-        <v>0.05869908651786454</v>
+        <v>0.08472436854143869</v>
       </c>
     </row>
   </sheetData>
